--- a/Articles.xlsx
+++ b/Articles.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\Политех учеба\Программирование\Schedule_reader-main\Semestral-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB915E4E-CD1C-4A0C-ADDF-077AB236F068}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A3E0DF1-FA38-4B15-9440-55DFDEA77743}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2115" yWindow="2115" windowWidth="15375" windowHeight="7875" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="100">
   <si>
     <t>Article Head</t>
   </si>
@@ -40,315 +40,286 @@
     <t>DOI</t>
   </si>
   <si>
-    <t>Construction of a Reduced PODE3/Nature Gas Dual-Fuel Mechanism under Enginelike Conditions</t>
-  </si>
-  <si>
-    <t>Haozhong Huang*, Yingjie Chen, Jizhen Zhu, Yajuan Chen, Delin Lv, Zhaojun Zhu, Lixia Wei, and Yaopeng Wei</t>
+    <t>Analysis of Oxidative Stabilization of Mesophase Pitch Matrix in Carbon−Carbon Composites, with Respect to Oxygen Permeability and Crosslinking</t>
+  </si>
+  <si>
+    <t>Sreedevi Upadhyayula, Salma Saddawi, and William Strieder</t>
+  </si>
+  <si>
+    <t>Industrial &amp; Engineering Chemistry Research, Jour. title</t>
+  </si>
+  <si>
+    <t>2007</t>
+  </si>
+  <si>
+    <t>['Volume 46', 'Issue 9']</t>
+  </si>
+  <si>
+    <t>/doi/10.1021/ie061640z</t>
+  </si>
+  <si>
+    <t>Microstructure Formation in Mesophase Carbon Fibers and Other Graphitic Materials</t>
+  </si>
+  <si>
+    <t>J. L. White and M. Buechler</t>
+  </si>
+  <si>
+    <t>Petroleum-Derived Carbons, , Book title</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>['Volume N/A', 'Issue N/A']</t>
+  </si>
+  <si>
+    <t>/doi/10.1021/bk-1986-0303.ch004</t>
+  </si>
+  <si>
+    <t>Effect of Liquid Crystalline Texture of Mesophase Pitches on the Structure and Property of Large-Diameter Carbon Fibers</t>
+  </si>
+  <si>
+    <t>Guanming Yuan*, Baoliu Li, Xuanke Li*, Zhijun Dong, Wanjing Hu, Aidan Westwood, Ye Cong, and Jiang Zhang</t>
+  </si>
+  <si>
+    <t>ACS Omega, Jour. title</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>['Volume 4', 'Issue 1']</t>
+  </si>
+  <si>
+    <t>/doi/10.1021/acsomega.8b03189</t>
+  </si>
+  <si>
+    <t>Molecular Structure Control in Mesophase Pitch via Co-Carbonization of Coal Tar Pitch and Petroleum Pitch for Production of Carbon Fibers with Both High Mechanical Properties and Thermal Conductivity</t>
+  </si>
+  <si>
+    <t>Jianguang Guo, Xuanke Li*, Huitao Xu, Hui Zhu, Baoliu Li, and Aidan Westwood*</t>
   </si>
   <si>
     <t>Energy &amp; Fuels, Jour. title</t>
   </si>
   <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>['Volume 33', 'Issue 4']</t>
-  </si>
-  <si>
-    <t>/doi/10.1021/acs.energyfuels.8b03926</t>
-  </si>
-  <si>
-    <t>Selective Gas Permeation in Mixed Matrix Membranes Accelerated by Hollow Ionic Covalent Organic Polymers</t>
-  </si>
-  <si>
-    <t>Youdong Cheng, Linzhi Zhai, Minman Tong, Tanay Kundu, Guoliang Liu, Yunpan Ying, Jinqiao Dong, Yuxiang Wang, and Dan Zhao*</t>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>['Volume 34', 'Issue 5']</t>
+  </si>
+  <si>
+    <t>/doi/10.1021/acs.energyfuels.0c00196</t>
+  </si>
+  <si>
+    <t>Carbon Fibers with High Electrical Conductivity: Laser Irradiation of Mesophase Pitch Filaments Obtains High Graphitization Degree</t>
+  </si>
+  <si>
+    <t>Zhenghe Zhang, Weimin Yang, Lisheng Cheng, Weiyu Cao, Mohini Sain, Jing Tan*, An Wang, and Haibo Jia</t>
   </si>
   <si>
     <t>ACS Sustainable Chemistry &amp; Engineering, Jour. title</t>
   </si>
   <si>
-    <t>['Volume 7', 'Issue 1']</t>
-  </si>
-  <si>
-    <t>/doi/10.1021/acssuschemeng.8b05333</t>
-  </si>
-  <si>
-    <t>NWPEsSe: An Adaptive-Learning Global Optimization Algorithm for Nanosized Cluster Systems</t>
-  </si>
-  <si>
-    <t>Jun Zhang, Vassiliki-Alexandra Glezakou*, Roger Rousseau, and Manh-Thuong Nguyen</t>
-  </si>
-  <si>
-    <t>Journal of Chemical Theory and Computation, Jour. title</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>['Volume 16', 'Issue 6']</t>
-  </si>
-  <si>
-    <t>/doi/10.1021/acs.jctc.9b01107</t>
-  </si>
-  <si>
-    <t>1000-Fold Preconcentration of Per- and Polyfluorinated Alkyl Substances within 10 Minutes via Electrochemical Aerosol Formation</t>
-  </si>
-  <si>
-    <t>Yue Cao, Chuping Lee, Eric T. J. Davis, Weimeng Si, Fagang Wang*, Sarah Trimpin*, and Long Luo*</t>
-  </si>
-  <si>
-    <t>Analytical Chemistry, Jour. title</t>
-  </si>
-  <si>
-    <t>['Volume 91', 'Issue 22']</t>
-  </si>
-  <si>
-    <t>/doi/10.1021/acs.analchem.9b02758</t>
-  </si>
-  <si>
-    <t>Geochemical Characteristics of Shale Gas in the Silurian Longmaxi Formation, Jiaoshiba Area, Southeast Sichuan Basin, China</t>
-  </si>
-  <si>
-    <t>Chen Xin, Lei Chen*, Xusheng Guo, and Chao Wang</t>
-  </si>
-  <si>
-    <t>['Volume 33', 'Issue 9']</t>
-  </si>
-  <si>
-    <t>/doi/10.1021/acs.energyfuels.9b01305</t>
-  </si>
-  <si>
-    <t>Energy’s Thirst for Water in China</t>
-  </si>
-  <si>
-    <t>Beiming Cai, Bing Zhang*, Jun Bi, and Wenjing Zhang</t>
-  </si>
-  <si>
-    <t>Environmental Science &amp; Technology, Jour. title</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>['Volume 48', 'Issue 20']</t>
-  </si>
-  <si>
-    <t>/doi/10.1021/es502655m</t>
-  </si>
-  <si>
-    <t>Scalable and Sustainable Synthesis of Advanced Porous Materials</t>
-  </si>
-  <si>
-    <t>Shing
-Bo Peh, Yuxiang Wang, and Dan Zhao*</t>
-  </si>
-  <si>
-    <t>['Volume 7', 'Issue 4']</t>
-  </si>
-  <si>
-    <t>/doi/10.1021/acssuschemeng.8b05463</t>
-  </si>
-  <si>
-    <t>First Fluorine Gas Found In Nature</t>
-  </si>
-  <si>
-    <t>DEIRDRE LOCKWOOD</t>
-  </si>
-  <si>
-    <t>Chemical &amp; Engineering News Archive, Jour. title</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>['Volume 90', 'Issue 29']</t>
-  </si>
-  <si>
-    <t>/doi/10.1021/cen-09029-notw2</t>
-  </si>
-  <si>
-    <t>Enhanced Gas Production from Hydrate Reservoirs with Underlying Water Layer</t>
-  </si>
-  <si>
-    <t>Lei Xu, Kangji Shi, Xin Lv, Rupeng Wei, Qi Fan, Qingping Li, Hongsheng Dong, Jiafei Zhao, and Lei Yang*</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>['Volume 35', 'Issue 2']</t>
-  </si>
-  <si>
-    <t>/doi/10.1021/acs.energyfuels.0c03677</t>
-  </si>
-  <si>
-    <t>Nature of Gas Phase Mass Transfer in Gas Chromatography.</t>
-  </si>
-  <si>
-    <t>J. C. Giddings</t>
-  </si>
-  <si>
-    <t>1962</t>
-  </si>
-  <si>
-    <t>['Volume 34', 'Issue 10']</t>
-  </si>
-  <si>
-    <t>/doi/10.1021/ac60190a005</t>
-  </si>
-  <si>
-    <t>Microscopic Nature of Gas Adsorption on WO3 Surfaces: Electron Interaction and Localization</t>
-  </si>
-  <si>
-    <t>Xu Cheng, Xiao Jiang, Kun Tao, Qing Su, Yanrong Wang*, and Erqing Xie*</t>
-  </si>
-  <si>
-    <t>The Journal of Physical Chemistry Letters, Jour. title</t>
-  </si>
-  <si>
-    <t>['Volume 11', 'Issue 21']</t>
-  </si>
-  <si>
-    <t>/doi/10.1021/acs.jpclett.0c02020</t>
-  </si>
-  <si>
-    <t>Nature and Origin of Foulant on Filters in Coker Gas Oil Hydrotreater Feed Streams</t>
-  </si>
-  <si>
-    <t>John R. Woods, Judy Kung, Zhiming Xu, Luba S. Kotlyar*, Bryan D. Sparks, Thom McCracken, and Xin A. Wu</t>
+    <t>['Volume 8', 'Issue 48']</t>
+  </si>
+  <si>
+    <t>/doi/10.1021/acssuschemeng.0c02454</t>
+  </si>
+  <si>
+    <t>Simultaneous Control of Morphology and Porosity in Nanoporous Carbon:  Graphitic Mesoporous Carbon Nanorods and Nanotubules with Tunable Pore Size</t>
+  </si>
+  <si>
+    <t>Yongde Xia, Zhuxian Yang, and Robert Mokaya</t>
+  </si>
+  <si>
+    <t>Chemistry of Materials, Jour. title</t>
+  </si>
+  <si>
+    <t>2006</t>
+  </si>
+  <si>
+    <t>['Volume 18', 'Issue 1']</t>
+  </si>
+  <si>
+    <t>/doi/10.1021/cm0522634</t>
+  </si>
+  <si>
+    <t>Mesophase Pitch Carbon Coated with Phenolic Resin for the Anode of Lithium-Ion Batteries</t>
+  </si>
+  <si>
+    <t>Jui-Hsiang Lin*, Tse-Hao Ko, Wen-Shyong Kuo, and Chia-Hung Wei</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>['Volume 24', 'Issue 7']</t>
+  </si>
+  <si>
+    <t>/doi/10.1021/ef1004122</t>
+  </si>
+  <si>
+    <t>The Chemistry of Mesophase Formation</t>
+  </si>
+  <si>
+    <t>Harry Marsh and Carolyn S. Latham</t>
+  </si>
+  <si>
+    <t>/doi/10.1021/bk-1986-0303.ch001</t>
+  </si>
+  <si>
+    <t>Investigation of the Formation of Carbon and Graphite Nanofiber from Mesophase Pitch Nanofiber Precursor</t>
+  </si>
+  <si>
+    <t>Hao Fong and Darrell H. Reneker</t>
+  </si>
+  <si>
+    <t>Polymeric Nanofibers, , Book title</t>
+  </si>
+  <si>
+    <t>/doi/10.1021/bk-2006-0918.ch020</t>
+  </si>
+  <si>
+    <t>Mesophase: The Precursor to Graphitizable Carbon</t>
+  </si>
+  <si>
+    <t>HARRY MARSH and CHRISTOPHER CORNFORD</t>
+  </si>
+  <si>
+    <t>Petroleum Derived Carbons, , Book title</t>
+  </si>
+  <si>
+    <t>/doi/10.1021/bk-1976-0021.ch020</t>
+  </si>
+  <si>
+    <t>Mesophase from Anthracene Oil-Based Pitches</t>
+  </si>
+  <si>
+    <t>P. Álvarez, J. Sutil, R. Santamaría, C. Blanco, R. Menéndez, and M. Granda*</t>
   </si>
   <si>
     <t>2008</t>
   </si>
   <si>
-    <t>['Volume 22', 'Issue 2']</t>
-  </si>
-  <si>
-    <t>/doi/10.1021/ef7004354</t>
-  </si>
-  <si>
-    <t>Investigation of Slickwater Effect on Permeability of Gas Shale from Longmaxi Formation</t>
-  </si>
-  <si>
-    <t>Zhonghua Liu, Baojun Bai*, Jing Tang, Zuping Xiang, Shunpeng Zeng*, and Hai Qu</t>
-  </si>
-  <si>
-    <t>['Volume 35', 'Issue 4']</t>
-  </si>
-  <si>
-    <t>/doi/10.1021/acs.energyfuels.0c04081</t>
-  </si>
-  <si>
-    <t>The Nature of Ionic Liquids in the Gas Phase</t>
-  </si>
-  <si>
-    <t>João P. Leal, José M. S. S. Esperança, Manuel E. Minas da Piedade, José N. Canongia Lopes, Luís P. N. Rebelo, and Kenneth R. Seddon</t>
-  </si>
-  <si>
-    <t>The Journal of Physical Chemistry A, Jour. title</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>['Volume 111', 'Issue 28']</t>
-  </si>
-  <si>
-    <t>/doi/10.1021/jp073006k</t>
-  </si>
-  <si>
-    <t>Experimental Research on the Drag Reduction Mechanism of Natural Gas Drag Reduction Agent and Its Industrial Field Test</t>
-  </si>
-  <si>
-    <t>Zhiqiang Huang, Zhen Chen*, Qin Li, Ronggai Zhu, Shuang Jing, Yi Zhou, Yachao Ma, Nan Wang, and Weichun Chang</t>
-  </si>
-  <si>
-    <t>Industrial &amp; Engineering Chemistry Research, Jour. title</t>
-  </si>
-  <si>
-    <t>['Volume 53', 'Issue 31']</t>
-  </si>
-  <si>
-    <t>/doi/10.1021/ie501478h</t>
-  </si>
-  <si>
-    <t>Understanding the Nature and Activity of Supported Platinum Catalysts for the Water–Gas Shift Reaction: From Metallic Nanoclusters to Alkali-Stabilized Single-Atom Cations</t>
-  </si>
-  <si>
-    <t>Salai
-Cheettu Ammal and Andreas Heyden*</t>
-  </si>
-  <si>
-    <t>ACS Catalysis, Jour. title</t>
-  </si>
-  <si>
-    <t>['Volume 9', 'Issue 9']</t>
-  </si>
-  <si>
-    <t>/doi/10.1021/acscatal.9b01560</t>
-  </si>
-  <si>
-    <t>Investigating the Nature of Noble Gas−Copper Bonds by the Quantum Theory of Atoms in Molecules</t>
-  </si>
-  <si>
-    <t>Eduardo F. F. Rodrigues, Eduardo L. de Sá, and Roberto L. A. Haiduke*</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>['Volume 114', 'Issue 15']</t>
-  </si>
-  <si>
-    <t>/doi/10.1021/jp1011439</t>
-  </si>
-  <si>
-    <t>Use of Pyrolysis Gas Chromatography—Mass Spectrometry to Study the Nature and Behavior of Natural Organic Matter in Water Treatment</t>
-  </si>
-  <si>
-    <t>K. A. Gray, A. H. Simpson, and K. S. McAuliffe</t>
-  </si>
-  <si>
-    <t>Water Disinfection and Natural Organic Matter, , Book title</t>
-  </si>
-  <si>
-    <t>N/A</t>
-  </si>
-  <si>
-    <t>['Volume N/A', 'Issue N/A']</t>
-  </si>
-  <si>
-    <t>/doi/10.1021/bk-1996-0649.ch011</t>
-  </si>
-  <si>
-    <t>Nature of Minor-Groove Binders−DNA Complexes in the Gas Phase</t>
-  </si>
-  <si>
-    <t>Manuel Rueda,  Luque, and Modesto Orozco</t>
-  </si>
-  <si>
-    <t>Journal of the American Chemical Society, Jour. title</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>['Volume 127', 'Issue 33']</t>
-  </si>
-  <si>
-    <t>/doi/10.1021/ja0422110</t>
-  </si>
-  <si>
-    <t>Experimental Investigations into Gas Production Behaviors from Methane Hydrate with Different Methods in a Cubic Hydrate Simulator</t>
-  </si>
-  <si>
-    <t>Xiao-Sen Li*, Yi Wang, Gang Li, and Yu Zhang</t>
-  </si>
-  <si>
-    <t>['Volume 26', 'Issue 2']</t>
-  </si>
-  <si>
-    <t>/doi/10.1021/ef201641v</t>
+    <t>['Volume 22', 'Issue 6']</t>
+  </si>
+  <si>
+    <t>/doi/10.1021/ef800499x</t>
+  </si>
+  <si>
+    <t>Chemical Characterization and Preparation of the Carbonaceous Mesophase</t>
+  </si>
+  <si>
+    <t>Isao Mochida and Yozo Korai</t>
+  </si>
+  <si>
+    <t>/doi/10.1021/bk-1986-0303.ch002</t>
+  </si>
+  <si>
+    <t>N-doped Hierarchical Mesoporous Carbon from Mesophase Pitch and Polypyrrole for Supercapacitors</t>
+  </si>
+  <si>
+    <t>Mengxuan Liu, Wei Li*, Siying Ruan, and Youqing Fei</t>
+  </si>
+  <si>
+    <t>['Volume 34', 'Issue 4']</t>
+  </si>
+  <si>
+    <t>/doi/10.1021/acs.energyfuels.0c00176</t>
+  </si>
+  <si>
+    <t>Spinnable Mesophase Pitch Prepared via Co-carbonization of Fluid Catalytic Cracking Decant Oil and Synthetic Naphthalene Pitch</t>
+  </si>
+  <si>
+    <t>Jianguang Guo, Hui Zhu, Huitao Xu, Aidan Westwood, and Xuanke Li*</t>
+  </si>
+  <si>
+    <t>['Volume 34', 'Issue 2']</t>
+  </si>
+  <si>
+    <t>/doi/10.1021/acs.energyfuels.9b03841</t>
+  </si>
+  <si>
+    <t>News and Announcements</t>
+  </si>
+  <si>
+    <t>First PagePDF</t>
+  </si>
+  <si>
+    <t>Langmuir, Jour. title</t>
+  </si>
+  <si>
+    <t>1995</t>
+  </si>
+  <si>
+    <t>['Volume 11', 'Issue 1']</t>
+  </si>
+  <si>
+    <t>/doi/10.1021/la00001a601</t>
+  </si>
+  <si>
+    <t>Mesophase Pitch-Derived Carbons with High Electronic and Ionic Conductivity Levels for Electric Double-Layer Capacitors</t>
+  </si>
+  <si>
+    <t>Pin-I Wu, Yu-Tung Hsu, Yu-Cheng Tseng, Ramesh Subramani, Yan-Shi Chen, Chia-Lin Chang, Goa-Shee Leu, and Hsisheng Teng*</t>
+  </si>
+  <si>
+    <t>['Volume 4', 'Issue 16']</t>
+  </si>
+  <si>
+    <t>/doi/10.1021/acsomega.9b02243</t>
+  </si>
+  <si>
+    <t>Pitch-Solvent Interactions and Their Effects on Mesophase Formation</t>
+  </si>
+  <si>
+    <t>J. G. VENNER and R. J. DIEFENDORF</t>
+  </si>
+  <si>
+    <t>Polymers for Fibers and Elastomers, , Book title</t>
+  </si>
+  <si>
+    <t>/doi/10.1021/bk-1984-0260.ch013</t>
+  </si>
+  <si>
+    <t>Development of Mesophase from a Low-Temperature Coal Tar Pitch</t>
+  </si>
+  <si>
+    <t>Roberto García, José L. Crespo, Shona C. Martin, Colin E. Snape, and Sabino R. Moinelo</t>
+  </si>
+  <si>
+    <t>2003</t>
+  </si>
+  <si>
+    <t>['Volume 17', 'Issue 2']</t>
+  </si>
+  <si>
+    <t>/doi/10.1021/ef020109n</t>
+  </si>
+  <si>
+    <t>Production of Mesophase Pitch by Supercritical Fluid Extraction</t>
+  </si>
+  <si>
+    <t>T. Hochgeschurtz, K. W. Hutchenson, J. R. Roebers, G.-Z. Liu, J. C. Mullins, and M. C. Thies</t>
+  </si>
+  <si>
+    <t>Supercritical Fluid Engineering Science, , Book title</t>
+  </si>
+  <si>
+    <t>/doi/10.1021/bk-1992-0514.ch028</t>
+  </si>
+  <si>
+    <t>The Mesophase Formation</t>
+  </si>
+  <si>
+    <t>M. Ueno, H. Asano, and T. Okai</t>
+  </si>
+  <si>
+    <t>Phenomena in Mixed Surfactant Systems, , Book title</t>
+  </si>
+  <si>
+    <t>/doi/10.1021/bk-1986-0311.ch019</t>
   </si>
 </sst>
 </file>
@@ -713,18 +684,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F6" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="79.140625" customWidth="1"/>
-    <col min="3" max="3" width="105.28515625" customWidth="1"/>
-    <col min="4" max="4" width="56.85546875" customWidth="1"/>
-    <col min="5" max="5" width="21.28515625" customWidth="1"/>
-    <col min="6" max="6" width="27.42578125" customWidth="1"/>
-    <col min="7" max="7" width="19.7109375" customWidth="1"/>
+    <col min="2" max="2" width="43.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -784,13 +748,13 @@
         <v>14</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G3" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -798,22 +762,22 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -821,22 +785,22 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F5" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="G5" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
@@ -844,22 +808,22 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>32</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="G6" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -867,22 +831,22 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C7" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E7" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F7" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="G7" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -890,22 +854,22 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="E8" t="s">
-        <v>9</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="G8" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -913,22 +877,22 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="D9" t="s">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="F9" t="s">
-        <v>46</v>
+        <v>16</v>
       </c>
       <c r="G9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -936,19 +900,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>51</v>
       </c>
       <c r="E10" t="s">
-        <v>50</v>
+        <v>15</v>
       </c>
       <c r="F10" t="s">
-        <v>51</v>
+        <v>16</v>
       </c>
       <c r="G10" t="s">
         <v>52</v>
@@ -965,16 +929,16 @@
         <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>55</v>
       </c>
       <c r="E11" t="s">
-        <v>55</v>
+        <v>15</v>
       </c>
       <c r="F11" t="s">
+        <v>16</v>
+      </c>
+      <c r="G11" t="s">
         <v>56</v>
-      </c>
-      <c r="G11" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
@@ -982,22 +946,22 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
         <v>58</v>
       </c>
-      <c r="C12" t="s">
+      <c r="D12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E12" t="s">
         <v>59</v>
       </c>
-      <c r="D12" t="s">
+      <c r="F12" t="s">
         <v>60</v>
       </c>
-      <c r="E12" t="s">
-        <v>20</v>
-      </c>
-      <c r="F12" t="s">
+      <c r="G12" t="s">
         <v>61</v>
-      </c>
-      <c r="G12" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
@@ -1005,22 +969,22 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
+        <v>62</v>
+      </c>
+      <c r="C13" t="s">
         <v>63</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
+        <v>14</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" t="s">
+        <v>16</v>
+      </c>
+      <c r="G13" t="s">
         <v>64</v>
-      </c>
-      <c r="D13" t="s">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
-        <v>65</v>
-      </c>
-      <c r="F13" t="s">
-        <v>66</v>
-      </c>
-      <c r="G13" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
@@ -1028,22 +992,22 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+      <c r="F14" t="s">
+        <v>67</v>
+      </c>
+      <c r="G14" t="s">
         <v>68</v>
-      </c>
-      <c r="C14" t="s">
-        <v>69</v>
-      </c>
-      <c r="D14" t="s">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F14" t="s">
-        <v>70</v>
-      </c>
-      <c r="G14" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
@@ -1051,22 +1015,22 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
+        <v>69</v>
+      </c>
+      <c r="C15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+      <c r="F15" t="s">
+        <v>71</v>
+      </c>
+      <c r="G15" t="s">
         <v>72</v>
-      </c>
-      <c r="C15" t="s">
-        <v>73</v>
-      </c>
-      <c r="D15" t="s">
-        <v>74</v>
-      </c>
-      <c r="E15" t="s">
-        <v>75</v>
-      </c>
-      <c r="F15" t="s">
-        <v>76</v>
-      </c>
-      <c r="G15" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
@@ -1074,22 +1038,22 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>73</v>
+      </c>
+      <c r="C16" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" t="s">
+        <v>75</v>
+      </c>
+      <c r="E16" t="s">
+        <v>76</v>
+      </c>
+      <c r="F16" t="s">
+        <v>77</v>
+      </c>
+      <c r="G16" t="s">
         <v>78</v>
-      </c>
-      <c r="C16" t="s">
-        <v>79</v>
-      </c>
-      <c r="D16" t="s">
-        <v>80</v>
-      </c>
-      <c r="E16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" t="s">
-        <v>81</v>
-      </c>
-      <c r="G16" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -1097,22 +1061,22 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="C17" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="D17" t="s">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="F17" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="G17" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
@@ -1120,22 +1084,22 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="C18" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="D18" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="E18" t="s">
-        <v>90</v>
+        <v>15</v>
       </c>
       <c r="F18" t="s">
-        <v>91</v>
+        <v>16</v>
       </c>
       <c r="G18" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -1143,22 +1107,22 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="C19" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="D19" t="s">
-        <v>95</v>
+        <v>26</v>
       </c>
       <c r="E19" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="F19" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="G19" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
@@ -1166,22 +1130,22 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="C20" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="D20" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="E20" t="s">
-        <v>102</v>
+        <v>15</v>
       </c>
       <c r="F20" t="s">
-        <v>103</v>
+        <v>16</v>
       </c>
       <c r="G20" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
@@ -1189,22 +1153,22 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="C21" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="D21" t="s">
-        <v>8</v>
+        <v>98</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>15</v>
       </c>
       <c r="F21" t="s">
-        <v>107</v>
+        <v>16</v>
       </c>
       <c r="G21" t="s">
-        <v>108</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
